--- a/data and code/code/vardfs/flyzone_vardf.xlsx
+++ b/data and code/code/vardfs/flyzone_vardf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfulham/Desktop/Flyzone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nfulham/Desktop/Flyzone/data and code/code/vardfs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31F490C8-4B9F-A740-BB40-DD75167512D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA0CE38-C76B-5F4A-A0A3-B2B70FD1479E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16840" xr2:uid="{CDF2607B-D8AC-2541-9E6B-2326E07AC1F5}"/>
   </bookViews>
@@ -191,30 +191,6 @@
     <t>Measure of experienced conflict expression</t>
   </si>
   <si>
-    <t>MECE - Debate</t>
-  </si>
-  <si>
-    <t>MECE - Argue</t>
-  </si>
-  <si>
-    <t>MECE - Undermine</t>
-  </si>
-  <si>
-    <t>MECE - Disguise</t>
-  </si>
-  <si>
-    <t>mece_debate</t>
-  </si>
-  <si>
-    <t>mece_argue</t>
-  </si>
-  <si>
-    <t>mece_undermine</t>
-  </si>
-  <si>
-    <t>mece_disguise</t>
-  </si>
-  <si>
     <t>sp_receptive</t>
   </si>
   <si>
@@ -287,18 +263,6 @@
     <t>disguise</t>
   </si>
   <si>
-    <t>mece_1,mece_2,mece_3</t>
-  </si>
-  <si>
-    <t>mece_4,mece_5,mece_6</t>
-  </si>
-  <si>
-    <t>mece_7,mece_8,mece_9</t>
-  </si>
-  <si>
-    <t>mece_10,mece_11,mece_12</t>
-  </si>
-  <si>
     <t>Initial information integration</t>
   </si>
   <si>
@@ -345,6 +309,42 @@
   </si>
   <si>
     <t>ord_special</t>
+  </si>
+  <si>
+    <t>ECI - Argue</t>
+  </si>
+  <si>
+    <t>ECI - Debate</t>
+  </si>
+  <si>
+    <t>ECI - Undermine</t>
+  </si>
+  <si>
+    <t>ECI - Disguise</t>
+  </si>
+  <si>
+    <t>eci_1,eci_2,eci_3</t>
+  </si>
+  <si>
+    <t>eci_debate</t>
+  </si>
+  <si>
+    <t>eci_4,eci_5,eci_6</t>
+  </si>
+  <si>
+    <t>eci_argue</t>
+  </si>
+  <si>
+    <t>eci_7,eci_8,eci_9</t>
+  </si>
+  <si>
+    <t>eci_undermine</t>
+  </si>
+  <si>
+    <t>eci_10,eci_11,eci_12</t>
+  </si>
+  <si>
+    <t>eci_disguise</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,42 +426,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -785,7 +754,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +802,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -871,7 +840,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -889,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -904,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -921,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -936,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -953,7 +922,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -968,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1000,47 +969,47 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
@@ -1049,10 +1018,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
@@ -1064,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1095,16 +1064,16 @@
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>101</v>
+      <c r="K9" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1113,10 +1082,10 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -1127,16 +1096,16 @@
       <c r="J10">
         <v>7</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>101</v>
+      <c r="K10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1145,10 +1114,10 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1159,16 +1128,16 @@
       <c r="J11">
         <v>7</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>101</v>
+      <c r="K11" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1177,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1191,16 +1160,16 @@
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>102</v>
+      <c r="K12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>20</v>
@@ -1209,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G13" s="3" t="b">
         <v>0</v>
@@ -1223,40 +1192,40 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>102</v>
+      <c r="K13" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
+        <v>83</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>7</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>101</v>
+      <c r="K14" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1287,8 +1256,8 @@
       <c r="J15">
         <v>7</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>101</v>
+      <c r="K15" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1319,8 +1288,8 @@
       <c r="J16">
         <v>7</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>101</v>
+      <c r="K16" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1351,8 +1320,8 @@
       <c r="J17">
         <v>7</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>101</v>
+      <c r="K17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1360,19 +1329,19 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1386,25 +1355,25 @@
       <c r="J18">
         <v>7</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>101</v>
+      <c r="K18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1418,25 +1387,25 @@
       <c r="J19">
         <v>7</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>101</v>
+      <c r="K19" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1450,25 +1419,25 @@
       <c r="J20">
         <v>7</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>101</v>
+      <c r="K20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G21" s="3" t="b">
         <v>0</v>
@@ -1482,8 +1451,8 @@
       <c r="J21" s="3">
         <v>7</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>101</v>
+      <c r="K21" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1514,8 +1483,8 @@
       <c r="J22">
         <v>7</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>101</v>
+      <c r="K22" t="s">
+        <v>89</v>
       </c>
       <c r="L22" t="s">
         <v>30</v>
@@ -1523,13 +1492,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1538,7 +1507,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1553,14 +1522,14 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
